--- a/data.xlsx
+++ b/data.xlsx
@@ -415,7 +415,7 @@
       <c t="str">
         <v>Filtros aplicados:
 data_filiacao é igual a ou está depois de 01/05/2025
-NOME_FRANQUIA é FORMOSA</v>
+NOME_FRANQUIA é MANHUACU</v>
       </c>
     </row>
     <row r="2">
